--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -680,7 +680,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PhysicalExamCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -777,7 +777,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
   &lt;code value="physical-findings"/&gt;
   &lt;display value="Physical Findings"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1160,7 +1160,7 @@
     <t>ICD-11</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationPhysicalExamBodySite_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationPhysicalExamBodySite_VS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1187,7 +1187,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationPhysicalExamMethod_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationPhysicalExamMethod_VS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1538,7 +1538,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
   &lt;code value="detailed-physical-findings"/&gt;
   &lt;display value="Detailed Physical Findings"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1939,7 +1939,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.46484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.21875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -272,10 +272,6 @@
   </si>
   <si>
     <t>身体所見に関するObservation（検査測定や観察事実）の制約プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2182,19 +2178,19 @@
         <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>82</v>
@@ -2205,7 +2201,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2216,28 +2212,28 @@
         <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2287,13 +2283,13 @@
         <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>82</v>
@@ -2322,7 +2318,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2333,25 +2329,25 @@
         <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2402,19 +2398,19 @@
         <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
@@ -2437,7 +2433,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2448,28 +2444,28 @@
         <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2519,19 +2515,19 @@
         <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -2554,7 +2550,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2565,7 +2561,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>82</v>
@@ -2577,16 +2573,16 @@
         <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2612,43 +2608,43 @@
         <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>82</v>
@@ -2671,18 +2667,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>82</v>
@@ -2694,16 +2690,16 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2753,31 +2749,31 @@
         <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>82</v>
@@ -2788,11 +2784,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2811,16 +2807,16 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2870,7 +2866,7 @@
         <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -2894,7 +2890,7 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>82</v>
@@ -2905,11 +2901,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2928,16 +2924,16 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2987,7 +2983,7 @@
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>80</v>
@@ -2999,7 +2995,7 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>82</v>
@@ -3011,7 +3007,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3022,11 +3018,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3039,25 +3035,25 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>82</v>
@@ -3106,7 +3102,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -3118,7 +3114,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -3130,7 +3126,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3141,7 +3137,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3161,20 +3157,20 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>82</v>
@@ -3223,7 +3219,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
@@ -3235,22 +3231,22 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3258,11 +3254,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3278,20 +3274,20 @@
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>82</v>
@@ -3340,7 +3336,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
@@ -3352,19 +3348,19 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3375,11 +3371,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3395,19 +3391,19 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3457,7 +3453,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3469,19 +3465,19 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3492,7 +3488,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3500,34 +3496,34 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
@@ -3552,58 +3548,58 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3611,7 +3607,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3619,7 +3615,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
@@ -3634,19 +3630,19 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -3671,29 +3667,29 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
@@ -3705,7 +3701,7 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>82</v>
@@ -3717,10 +3713,10 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -3728,20 +3724,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>82</v>
@@ -3753,19 +3749,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -3775,7 +3771,7 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>82</v>
@@ -3790,14 +3786,14 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
       </c>
@@ -3814,7 +3810,7 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
@@ -3826,7 +3822,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>82</v>
@@ -3838,10 +3834,10 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -3849,42 +3845,42 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>82</v>
@@ -3909,64 +3905,64 @@
         <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3977,7 +3973,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>82</v>
@@ -3989,13 +3985,13 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4046,31 +4042,31 @@
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>82</v>
@@ -4081,11 +4077,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4104,16 +4100,16 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4151,19 +4147,19 @@
         <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AB19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AC19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -4175,7 +4171,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>82</v>
@@ -4187,7 +4183,7 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
@@ -4198,7 +4194,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4218,22 +4214,22 @@
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>82</v>
@@ -4270,17 +4266,17 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>80</v>
@@ -4292,7 +4288,7 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>82</v>
@@ -4301,10 +4297,10 @@
         <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
@@ -4315,10 +4311,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>82</v>
@@ -4328,31 +4324,31 @@
         <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>82</v>
@@ -4362,7 +4358,7 @@
         <v>82</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>82</v>
@@ -4401,7 +4397,7 @@
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>80</v>
@@ -4413,7 +4409,7 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>82</v>
@@ -4422,10 +4418,10 @@
         <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
@@ -4436,7 +4432,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4447,31 +4443,31 @@
         <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>82</v>
@@ -4520,31 +4516,31 @@
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>82</v>
@@ -4555,7 +4551,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4563,34 +4559,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>82</v>
@@ -4639,34 +4635,34 @@
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4674,7 +4670,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4694,19 +4690,19 @@
         <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4756,7 +4752,7 @@
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>80</v>
@@ -4768,7 +4764,7 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -4777,13 +4773,13 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4791,42 +4787,42 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>82</v>
@@ -4875,34 +4871,34 @@
         <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -4910,42 +4906,42 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>82</v>
@@ -4994,34 +4990,34 @@
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5029,7 +5025,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5040,28 +5036,28 @@
         <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5111,19 +5107,19 @@
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>82</v>
@@ -5132,13 +5128,13 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5146,7 +5142,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5166,22 +5162,22 @@
         <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>82</v>
@@ -5230,7 +5226,7 @@
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>80</v>
@@ -5242,22 +5238,22 @@
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5265,7 +5261,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5276,31 +5272,31 @@
         <v>80</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>82</v>
@@ -5337,55 +5333,55 @@
         <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>82</v>
@@ -5395,31 +5391,31 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>82</v>
@@ -5444,11 +5440,11 @@
         <v>82</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>82</v>
@@ -5466,42 +5462,42 @@
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AI30" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5512,7 +5508,7 @@
         <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>82</v>
@@ -5524,19 +5520,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>82</v>
@@ -5561,55 +5557,55 @@
         <v>82</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH31" t="s" s="2">
+      <c r="AI31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
@@ -5620,11 +5616,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5643,19 +5639,19 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>82</v>
@@ -5680,14 +5676,14 @@
         <v>82</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5704,7 +5700,7 @@
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>80</v>
@@ -5716,30 +5712,30 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5762,19 +5758,19 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>82</v>
@@ -5823,7 +5819,7 @@
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>80</v>
@@ -5835,7 +5831,7 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>82</v>
@@ -5844,10 +5840,10 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
@@ -5858,7 +5854,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5869,7 +5865,7 @@
         <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>82</v>
@@ -5881,16 +5877,16 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5916,64 +5912,64 @@
         <v>82</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5984,7 +5980,7 @@
         <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>82</v>
@@ -5996,19 +5992,19 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>82</v>
@@ -6033,53 +6029,53 @@
         <v>82</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6090,7 +6086,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6101,7 +6097,7 @@
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>82</v>
@@ -6113,16 +6109,16 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6172,42 +6168,42 @@
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6218,7 +6214,7 @@
         <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>82</v>
@@ -6230,16 +6226,16 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6289,42 +6285,42 @@
         <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6347,19 +6343,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>82</v>
@@ -6408,7 +6404,7 @@
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>80</v>
@@ -6420,19 +6416,19 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
@@ -6443,7 +6439,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6454,7 +6450,7 @@
         <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>82</v>
@@ -6466,13 +6462,13 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6523,31 +6519,31 @@
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
@@ -6558,11 +6554,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6581,16 +6577,16 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L40" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6640,7 +6636,7 @@
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>80</v>
@@ -6652,7 +6648,7 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>82</v>
@@ -6664,7 +6660,7 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -6675,11 +6671,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6692,25 +6688,25 @@
         <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>82</v>
@@ -6759,7 +6755,7 @@
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>80</v>
@@ -6771,7 +6767,7 @@
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>82</v>
@@ -6783,7 +6779,7 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -6794,7 +6790,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6805,7 +6801,7 @@
         <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>82</v>
@@ -6817,13 +6813,13 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6874,31 +6870,31 @@
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI42" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
@@ -6909,7 +6905,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6920,7 +6916,7 @@
         <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>82</v>
@@ -6932,13 +6928,13 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6989,31 +6985,31 @@
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI43" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
@@ -7024,7 +7020,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7035,7 +7031,7 @@
         <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>82</v>
@@ -7047,19 +7043,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>82</v>
@@ -7084,55 +7080,55 @@
         <v>82</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
@@ -7143,7 +7139,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7166,19 +7162,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>82</v>
@@ -7203,14 +7199,14 @@
         <v>82</v>
       </c>
       <c r="W45" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="X45" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="X45" t="s" s="2">
+      <c r="Y45" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7227,7 +7223,7 @@
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>80</v>
@@ -7239,19 +7235,19 @@
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="AM45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7262,7 +7258,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7273,7 +7269,7 @@
         <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>82</v>
@@ -7285,17 +7281,17 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>82</v>
@@ -7344,19 +7340,19 @@
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>82</v>
@@ -7368,7 +7364,7 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7379,7 +7375,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7390,7 +7386,7 @@
         <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>82</v>
@@ -7402,13 +7398,13 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7459,19 +7455,19 @@
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>82</v>
@@ -7480,10 +7476,10 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
@@ -7494,7 +7490,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7514,19 +7510,19 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7576,7 +7572,7 @@
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>80</v>
@@ -7588,7 +7584,7 @@
         <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>82</v>
@@ -7597,10 +7593,10 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -7611,7 +7607,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7631,19 +7627,19 @@
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7693,7 +7689,7 @@
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>80</v>
@@ -7705,7 +7701,7 @@
         <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>82</v>
@@ -7714,10 +7710,10 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -7728,7 +7724,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7748,22 +7744,22 @@
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>82</v>
@@ -7812,7 +7808,7 @@
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
@@ -7824,7 +7820,7 @@
         <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>82</v>
@@ -7833,10 +7829,10 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
@@ -7847,7 +7843,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7858,7 +7854,7 @@
         <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>82</v>
@@ -7870,13 +7866,13 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7927,31 +7923,31 @@
         <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -7962,11 +7958,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7985,16 +7981,16 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K52" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L52" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8044,7 +8040,7 @@
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>80</v>
@@ -8056,7 +8052,7 @@
         <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>82</v>
@@ -8068,7 +8064,7 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
@@ -8079,11 +8075,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8096,25 +8092,25 @@
         <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>82</v>
@@ -8163,7 +8159,7 @@
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>80</v>
@@ -8175,7 +8171,7 @@
         <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>82</v>
@@ -8187,7 +8183,7 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
@@ -8198,7 +8194,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8206,34 +8202,34 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>82</v>
@@ -8258,11 +8254,11 @@
         <v>82</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>82</v>
@@ -8280,34 +8276,34 @@
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8315,7 +8311,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8326,7 +8322,7 @@
         <v>80</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>82</v>
@@ -8338,13 +8334,13 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8395,31 +8391,31 @@
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
@@ -8430,11 +8426,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8453,16 +8449,16 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K56" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L56" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8500,19 +8496,19 @@
         <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AB56" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AB56" t="s" s="2">
+      <c r="AC56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>80</v>
@@ -8524,7 +8520,7 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>82</v>
@@ -8536,7 +8532,7 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
@@ -8547,7 +8543,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8567,22 +8563,22 @@
         <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>82</v>
@@ -8619,17 +8615,17 @@
         <v>82</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>80</v>
@@ -8641,7 +8637,7 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>82</v>
@@ -8650,10 +8646,10 @@
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -8664,10 +8660,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>82</v>
@@ -8677,31 +8673,31 @@
         <v>80</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>82</v>
@@ -8711,7 +8707,7 @@
         <v>82</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -8750,7 +8746,7 @@
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>80</v>
@@ -8762,7 +8758,7 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>82</v>
@@ -8771,10 +8767,10 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -8785,7 +8781,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8796,31 +8792,31 @@
         <v>80</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>82</v>
@@ -8869,31 +8865,31 @@
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AF59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -8904,7 +8900,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8915,31 +8911,31 @@
         <v>80</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>82</v>
@@ -8988,42 +8984,42 @@
         <v>82</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9034,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>82</v>
@@ -9046,19 +9042,19 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>82</v>
@@ -9083,55 +9079,55 @@
         <v>82</v>
       </c>
       <c r="W61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="X61" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="X61" t="s" s="2">
+      <c r="Y61" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH61" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH61" t="s" s="2">
+      <c r="AI61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9142,11 +9138,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9165,19 +9161,19 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>82</v>
@@ -9202,14 +9198,14 @@
         <v>82</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9226,7 +9222,7 @@
         <v>82</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>80</v>
@@ -9238,30 +9234,30 @@
         <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9287,16 +9283,16 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>82</v>
@@ -9345,7 +9341,7 @@
         <v>82</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>80</v>
@@ -9357,7 +9353,7 @@
         <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>82</v>
@@ -9366,10 +9362,10 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
